--- a/DatPhatAcc/Resources/MisaExcelTemplates/Mua_hang_qua_kho_VND.xlsx
+++ b/DatPhatAcc/Resources/MisaExcelTemplates/Mua_hang_qua_kho_VND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducdo\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducdo\source\repos\DatPhatAcc\DatPhatAcc\Resources\MisaExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF849C-BABF-4B06-BC3A-AF4C93893841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC006CA0-E6A5-4B13-B597-D83AAB0DE7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="2550" windowWidth="21555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="2070" windowWidth="22515" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chứng từ mua hàng nhập kho" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Ngày chứng từ (*)</t>
   </si>
@@ -155,27 +155,6 @@
   </si>
   <si>
     <t>Tỷ lệ tính thuế (Thuế suất KHAC)</t>
-  </si>
-  <si>
-    <t>NK01</t>
-  </si>
-  <si>
-    <t>VT00001</t>
-  </si>
-  <si>
-    <t>1561</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1331</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IA129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1340,63 +1319,37 @@
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="21">
-        <v>45293</v>
-      </c>
-      <c r="F2" s="21">
-        <v>45293</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="18"/>
       <c r="L2" s="21"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
-      <c r="R2" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>47</v>
-      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="18"/>
-      <c r="Y2" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="12">
-        <v>5000</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>6000</v>
-      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="AE2" s="13"/>
       <c r="AF2" s="12"/>
-      <c r="AG2" s="12">
-        <v>800</v>
-      </c>
+      <c r="AG2" s="12"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
